--- a/File_Excel/commenti_positivi_negativi_per_notizia_cronaca_nera.xlsx
+++ b/File_Excel/commenti_positivi_negativi_per_notizia_cronaca_nera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G9" t="n">
         <v>14</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G12" t="n">
         <v>12</v>
@@ -790,14 +790,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -848,14 +848,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -877,14 +877,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -901,19 +901,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -935,14 +935,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -964,14 +964,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="G19" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -983,17 +983,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>L'omicidio di Giulia Cecchettin</t>
+          <t>L'implosione del sottomarino Titan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1022,14 +1022,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -1051,14 +1051,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G22" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1075,19 +1075,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1109,14 +1109,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1138,14 +1138,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1162,19 +1162,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="G26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1196,14 +1196,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G27" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1244,24 +1244,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>L'omicidio di Giulia Cecchettin</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -1283,14 +1283,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1312,14 +1312,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1336,19 +1336,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G32" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -1370,14 +1370,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1399,14 +1399,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G34" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1423,19 +1423,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G35" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1457,14 +1457,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="G36" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1486,13 +1486,42 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>79</v>
+      </c>
+      <c r="G37" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CRONACA NERA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>YouTube</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>86</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="F38" t="n">
+        <v>82</v>
+      </c>
+      <c r="G38" t="n">
         <v>18</v>
       </c>
     </row>
